--- a/FME_files/UNIT_TESTS/XML_PUBLISHER/met/Config_BC_XML_Publisher.xlsx
+++ b/FME_files/UNIT_TESTS/XML_PUBLISHER/met/Config_BC_XML_Publisher.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="6750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14730" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -423,12 +423,6 @@
     <t>contacts{}.administrative_area</t>
   </si>
   <si>
-    <t>contact_postalcode</t>
-  </si>
-  <si>
-    <t>contacts{}.postalcode</t>
-  </si>
-  <si>
     <t>contact_country</t>
   </si>
   <si>
@@ -451,6 +445,12 @@
   </si>
   <si>
     <t>online_resource_description_fr</t>
+  </si>
+  <si>
+    <t>contacts{}.postal_code</t>
+  </si>
+  <si>
+    <t>contact_postal_code</t>
   </si>
 </sst>
 </file>
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1553,10 +1553,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C71" t="s">
         <v>73</v>
@@ -1564,10 +1564,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C72" t="s">
         <v>73</v>
@@ -1575,10 +1575,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C73" t="s">
         <v>73</v>
@@ -1641,10 +1641,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B79" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C79" t="s">
         <v>73</v>
@@ -1652,10 +1652,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B80" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C80" t="s">
         <v>73</v>
